--- a/test-code-generator/Evaluation/QuantitativeEvaluation/7/UC3.2.1_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/7/UC3.2.1_TC1.xlsx
@@ -616,11 +616,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.3020429508982123</v>
+        <v>0.2855594344146958</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.30204295089821226, 'ngram_match_score': 0.1551375132818893, 'weighted_ngram_match_score': 0.19182700444613968, 'syntax_match_score': 0.5205479452054794, 'dataflow_match_score': 0.34065934065934067}</t>
+          <t>{'codebleu': 0.2855594344146958, 'ngram_match_score': 0.1551375132818893, 'weighted_ngram_match_score': 0.19182700444613968, 'syntax_match_score': 0.5205479452054794, 'dataflow_match_score': 0.27472527472527475}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">

--- a/test-code-generator/Evaluation/QuantitativeEvaluation/7/UC3.2.1_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/7/UC3.2.1_TC1.xlsx
@@ -616,11 +616,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.2855594344146958</v>
+        <v>0.3130319618872233</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.2855594344146958, 'ngram_match_score': 0.1551375132818893, 'weighted_ngram_match_score': 0.19182700444613968, 'syntax_match_score': 0.5205479452054794, 'dataflow_match_score': 0.27472527472527475}</t>
+          <t>{'codebleu': 0.31303196188722326, 'ngram_match_score': 0.1551375132818893, 'weighted_ngram_match_score': 0.19182700444613968, 'syntax_match_score': 0.5205479452054794, 'dataflow_match_score': 0.38461538461538464}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
